--- a/monitoring_datasheet.xlsx
+++ b/monitoring_datasheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="5320" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="16700" yWindow="5800" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -41,20 +41,47 @@
     <t>Plot</t>
   </si>
   <si>
-    <t>Phenophase</t>
-  </si>
-  <si>
     <t>BBCH</t>
   </si>
   <si>
-    <t>Notes</t>
+    <t>Breaking Leaf Buds</t>
+  </si>
+  <si>
+    <t>Leaves</t>
+  </si>
+  <si>
+    <t>Open Flowers</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Entered By</t>
+  </si>
+  <si>
+    <t>Flowers or Flower Buds</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>ACEPEN08_WM</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>most buds have bursted, but no petiole evident</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,6 +91,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,8 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,38 +413,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42840</v>
+      </c>
+      <c r="C2" s="1">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
